--- a/python-email/dados/dados_tratados.xlsx
+++ b/python-email/dados/dados_tratados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -489,6 +494,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -519,6 +529,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -549,6 +564,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -579,6 +599,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,6 +634,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,6 +669,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -669,6 +704,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,6 +739,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -729,6 +774,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -759,6 +809,11 @@
           <t>jonas</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -787,6 +842,291 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>jonas</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sou</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sou</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sou</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sou</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sou</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sou</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sou</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>sou</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>silva</t>
         </is>
       </c>
     </row>

--- a/python-email/dados/dados_tratados.xlsx
+++ b/python-email/dados/dados_tratados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,10 +459,20 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="G1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -499,6 +509,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -534,6 +564,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -569,6 +619,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -604,6 +674,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -639,6 +729,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -674,6 +784,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -709,6 +839,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,6 +894,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -779,6 +949,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -814,6 +1004,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -849,6 +1059,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -884,6 +1114,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -919,6 +1169,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -954,6 +1224,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -989,6 +1279,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1024,6 +1334,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1059,6 +1389,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1094,6 +1444,26 @@
           <t>silva</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1127,6 +1497,26 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>silva</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>aeeeo</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>acabouaqui</t>
         </is>
       </c>
     </row>

--- a/python-email/dados/dados_tratados.xlsx
+++ b/python-email/dados/dados_tratados.xlsx
@@ -434,79 +434,84 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>5</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="G1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -516,52 +521,54 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -571,52 +578,54 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -626,52 +635,54 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -681,52 +692,54 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -736,52 +749,54 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -791,52 +806,54 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -846,52 +863,54 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -901,52 +920,54 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -956,52 +977,54 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1011,52 +1034,54 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1066,52 +1091,54 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1121,52 +1148,54 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1176,52 +1205,54 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1231,52 +1262,54 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1286,52 +1319,54 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1341,52 +1376,54 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1396,52 +1433,54 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1451,52 +1490,54 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>eu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sou</t>
+          <t>o</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>jonas</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>jonas</t>
+          <t>silva</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>silva</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1506,21 +1547,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>aeeeo</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>aeeeo</t>
+          <t>acabouaqui</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>acabouaqui</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="CC3D"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python-email/dados/dados_tratados.xlsx
+++ b/python-email/dados/dados_tratados.xlsx
@@ -1562,7 +1562,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="CC3D"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>